--- a/BRICKS.xlsx
+++ b/BRICKS.xlsx
@@ -4,10 +4,10 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="105" windowWidth="14355" windowHeight="4695" activeTab="3"/>
+    <workbookView xWindow="360" yWindow="105" windowWidth="14355" windowHeight="4695"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="CSS to Json" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
     <sheet name="CSS VAR COLOR TO JSON" sheetId="4" r:id="rId4"/>
@@ -7174,8 +7174,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3139"/>
   <sheetViews>
-    <sheetView topLeftCell="A3115" workbookViewId="0">
-      <selection activeCell="B3115" sqref="B3115"/>
+    <sheetView tabSelected="1" topLeftCell="A3115" workbookViewId="0">
+      <selection activeCell="B3125" sqref="B3125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -39005,7 +39005,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
@@ -39130,7 +39130,7 @@
         <v>primary-light</v>
       </c>
       <c r="L3" s="11" t="str">
-        <f t="shared" ref="L3:L53" si="3">PROPER(K3)</f>
+        <f t="shared" ref="L3:L49" si="3">PROPER(K3)</f>
         <v>Primary-Light</v>
       </c>
       <c r="M3" s="11" t="s">
@@ -39140,7 +39140,7 @@
         <v>2217</v>
       </c>
       <c r="P3" s="9" t="str">
-        <f t="shared" ref="P3:P53" si="4">CONCATENATE(B3,C3,D3,E3,F3,G3,H3,I3,J3,L3,M3,N3)</f>
+        <f t="shared" ref="P3:P16" si="4">CONCATENATE(B3,C3,D3,E3,F3,G3,H3,I3,J3,L3,M3,N3)</f>
         <v>{"raw":"var(--color-primary-light)","id": "266eef","name": "Primary-Light"},</v>
       </c>
     </row>
